--- a/FNCE 449 term project data/VNOM/VNOM Earnings surprise.xlsx
+++ b/FNCE 449 term project data/VNOM/VNOM Earnings surprise.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoang.nguyen1\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/namnguyenvu/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{133069FE-11E7-4756-B71E-AD09A243B669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E635BD-5449-C048-8C86-7B8F70CD850E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="227">
   <si>
     <t>Ann Date</t>
   </si>
@@ -698,13 +698,19 @@
   </si>
   <si>
     <t>2.27%</t>
+  </si>
+  <si>
+    <t>Price</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -846,6 +852,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1196,10 +1215,13 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="8" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -1260,9 +1282,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1300,9 +1322,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1335,9 +1357,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1370,9 +1409,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1546,70 +1602,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M47"/>
+  <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:N47"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="3.85546875" customWidth="1"/>
-    <col min="5" max="13" width="10.42578125" customWidth="1"/>
+    <col min="1" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="3.83203125" customWidth="1"/>
+    <col min="5" max="13" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1628,8 +1690,9 @@
       <c r="M3">
         <v>24.85</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1648,8 +1711,9 @@
       <c r="M4">
         <v>32.549999999999997</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1668,8 +1732,9 @@
       <c r="M5">
         <v>28.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -1688,8 +1753,9 @@
       <c r="M6">
         <v>26.84</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -1720,8 +1786,11 @@
       <c r="M7">
         <v>13.26</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" s="4">
+        <v>27.59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -1752,8 +1821,11 @@
       <c r="M8">
         <v>14.96</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" s="5">
+        <v>31.44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -1784,8 +1856,11 @@
       <c r="M9">
         <v>11.89</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9" s="5">
+        <v>30.98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -1816,8 +1891,11 @@
       <c r="M10">
         <v>12.12</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10" s="5">
+        <v>39.299999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -1848,8 +1926,11 @@
       <c r="M11">
         <v>21.64</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11" s="5">
+        <v>40.49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -1880,8 +1961,11 @@
       <c r="M12">
         <v>14.51</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12" s="5">
+        <v>36.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
         <v>56</v>
       </c>
@@ -1912,8 +1996,11 @@
       <c r="M13">
         <v>19.75</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13" s="5">
+        <v>38.06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>61</v>
       </c>
@@ -1944,8 +2031,11 @@
       <c r="M14">
         <v>21.23</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14" s="5">
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
         <v>66</v>
       </c>
@@ -1976,8 +2066,11 @@
       <c r="M15">
         <v>20.52</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15" s="5">
+        <v>36.01</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
         <v>71</v>
       </c>
@@ -2008,8 +2101,11 @@
       <c r="M16">
         <v>27.9</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16" s="5">
+        <v>40.61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
         <v>76</v>
       </c>
@@ -2040,8 +2136,11 @@
       <c r="M17">
         <v>26.31</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N17" s="5">
+        <v>31.04</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
         <v>81</v>
       </c>
@@ -2072,8 +2171,11 @@
       <c r="M18">
         <v>15.83</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N18" s="5">
+        <v>27.17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
         <v>86</v>
       </c>
@@ -2104,8 +2206,11 @@
       <c r="M19">
         <v>16.809999999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N19" s="5">
+        <v>18.28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
         <v>91</v>
       </c>
@@ -2136,8 +2241,11 @@
       <c r="M20">
         <v>13.12</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N20" s="5">
+        <v>20.46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
         <v>96</v>
       </c>
@@ -2168,8 +2276,11 @@
       <c r="M21">
         <v>9.85</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N21" s="5">
+        <v>19.079999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" t="s">
         <v>100</v>
       </c>
@@ -2200,8 +2311,11 @@
       <c r="M22">
         <v>11.94</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N22" s="5">
+        <v>8.89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" t="s">
         <v>105</v>
       </c>
@@ -2232,8 +2346,11 @@
       <c r="M23">
         <v>13.11</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N23" s="5">
+        <v>15.72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" t="s">
         <v>110</v>
       </c>
@@ -2264,8 +2381,11 @@
       <c r="M24">
         <v>10.52</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N24" s="5">
+        <v>12.06</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" t="s">
         <v>114</v>
       </c>
@@ -2296,8 +2416,11 @@
       <c r="M25">
         <v>16.55</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N25" s="5">
+        <v>28.17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" t="s">
         <v>119</v>
       </c>
@@ -2328,8 +2451,11 @@
       <c r="M26">
         <v>8.84</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N26" s="5">
+        <v>22.05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" t="s">
         <v>124</v>
       </c>
@@ -2360,8 +2486,11 @@
       <c r="M27">
         <v>10.45</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N27" s="5">
+        <v>24.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" t="s">
         <v>129</v>
       </c>
@@ -2392,8 +2521,11 @@
       <c r="M28">
         <v>6.38</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N28" s="5">
+        <v>32.909999999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" t="s">
         <v>134</v>
       </c>
@@ -2424,8 +2556,11 @@
       <c r="M29">
         <v>5.95</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N29" s="5">
+        <v>32.83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" t="s">
         <v>138</v>
       </c>
@@ -2456,8 +2591,11 @@
       <c r="M30">
         <v>12.72</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N30" s="5">
+        <v>36.18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" t="s">
         <v>143</v>
       </c>
@@ -2488,8 +2626,11 @@
       <c r="M31">
         <v>7.04</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N31" s="5">
+        <v>46.13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" t="s">
         <v>148</v>
       </c>
@@ -2520,8 +2661,11 @@
       <c r="M32">
         <v>7.79</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N32" s="5">
+        <v>40.450000000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" t="s">
         <v>153</v>
       </c>
@@ -2552,8 +2696,11 @@
       <c r="M33">
         <v>7.38</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N33" s="5">
+        <v>41.12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" t="s">
         <v>158</v>
       </c>
@@ -2584,8 +2731,11 @@
       <c r="M34">
         <v>6.73</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N34" s="5">
+        <v>40.14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" t="s">
         <v>163</v>
       </c>
@@ -2616,8 +2766,11 @@
       <c r="M35">
         <v>9.8699999999999992</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N35" s="5">
+        <v>48.66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" t="s">
         <v>168</v>
       </c>
@@ -2648,8 +2801,11 @@
       <c r="M36">
         <v>31</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N36" s="5">
+        <v>48.47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" t="s">
         <v>173</v>
       </c>
@@ -2680,8 +2836,11 @@
       <c r="M37">
         <v>72.73</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N37" s="5">
+        <v>55.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" t="s">
         <v>178</v>
       </c>
@@ -2712,8 +2871,11 @@
       <c r="M38">
         <v>115.36</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N38" s="5">
+        <v>57.45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" t="s">
         <v>183</v>
       </c>
@@ -2744,8 +2906,11 @@
       <c r="M39">
         <v>186.5</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N39" s="5">
+        <v>50.23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" t="s">
         <v>188</v>
       </c>
@@ -2776,8 +2941,11 @@
       <c r="M40">
         <v>81.55</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N40" s="5">
+        <v>52.13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" t="s">
         <v>193</v>
       </c>
@@ -2808,8 +2976,11 @@
       <c r="M41">
         <v>41.06</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N41" s="5">
+        <v>37.47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" t="s">
         <v>197</v>
       </c>
@@ -2840,8 +3011,11 @@
       <c r="M42">
         <v>37.61</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N42" s="5">
+        <v>49.87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" t="s">
         <v>202</v>
       </c>
@@ -2872,8 +3046,11 @@
       <c r="M43">
         <v>44.75</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N43" s="5">
+        <v>44.44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" t="s">
         <v>207</v>
       </c>
@@ -2904,8 +3081,11 @@
       <c r="M44">
         <v>52.14</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N44" s="5">
+        <v>65.08</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45" t="s">
         <v>212</v>
       </c>
@@ -2930,8 +3110,11 @@
       <c r="K45" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N45" s="5">
+        <v>66.790000000000006</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46" t="s">
         <v>217</v>
       </c>
@@ -2956,8 +3139,11 @@
       <c r="K46" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N46" s="5">
+        <v>74.209999999999994</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47" t="s">
         <v>222</v>
       </c>
@@ -2972,6 +3158,9 @@
       </c>
       <c r="K47" t="s">
         <v>225</v>
+      </c>
+      <c r="N47" s="5">
+        <v>98.57</v>
       </c>
     </row>
   </sheetData>
